--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLUIS\Documents\Andro-Dunos-main\P1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14136"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>TASKS</t>
   </si>
@@ -222,12 +217,105 @@
   </si>
   <si>
     <t>Enemy Mini-MiniBoss</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Dead logic UI</t>
+  </si>
+  <si>
+    <t>Stage 4 module</t>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+  </si>
+  <si>
+    <t>One Up</t>
+  </si>
+  <si>
+    <t>Collisions stage 4</t>
+  </si>
+  <si>
+    <t>Water animation</t>
+  </si>
+  <si>
+    <t>Fix respawn players</t>
+  </si>
+  <si>
+    <t>Bonus animation</t>
+  </si>
+  <si>
+    <t>Enemy GreenMiniShip</t>
+  </si>
+  <si>
+    <t>Enemy TinyRedShip</t>
+  </si>
+  <si>
+    <t>Shield module</t>
+  </si>
+  <si>
+    <t>Wall Crashing</t>
+  </si>
+  <si>
+    <t>Enemy Column</t>
+  </si>
+  <si>
+    <t>Freeze camera</t>
+  </si>
+  <si>
+    <t>Animation ultimate</t>
+  </si>
+  <si>
+    <t>Enemy Big Ship</t>
+  </si>
+  <si>
+    <t>Weapon damage</t>
+  </si>
+  <si>
+    <t>Fix StageClear fades</t>
+  </si>
+  <si>
+    <t>Power Up animation</t>
+  </si>
+  <si>
+    <t>Enemy VendingMachine</t>
+  </si>
+  <si>
+    <t>PowerUp B</t>
+  </si>
+  <si>
+    <t>Blink respawn</t>
+  </si>
+  <si>
+    <t>Put enemies life</t>
+  </si>
+  <si>
+    <t>Enemy TrippleCannon</t>
+  </si>
+  <si>
+    <t>Type weapon UI</t>
+  </si>
+  <si>
+    <t>UltimateBar UI</t>
+  </si>
+  <si>
+    <t>Enemies life OnCollision</t>
+  </si>
+  <si>
+    <t>Wiki UI / audio(no sprites)</t>
+  </si>
+  <si>
+    <t>Wiki  GA (no sprites)</t>
+  </si>
+  <si>
+    <t>Wiki home/ art / design(no sprites)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -297,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -348,17 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -439,26 +516,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -476,34 +533,34 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,26 +593,12 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,30 +944,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K61"/>
+  <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -950,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -969,17 +1013,17 @@
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25">
-        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6</f>
-        <v>1.3958333333333333</v>
-      </c>
-      <c r="J3" s="25">
-        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6</f>
-        <v>2.3333333333333335</v>
+      <c r="I3" s="21">
+        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6+D59+D71+D72+D76+D78+D82+D84+D86</f>
+        <v>2.229166666666667</v>
+      </c>
+      <c r="J3" s="21">
+        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6+E59+E71+E72+E76+E78+E82+E84+E86</f>
+        <v>4.3958333333333339</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
@@ -998,16 +1042,16 @@
       <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="25">
-        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56</f>
+      <c r="I4" s="21">
+        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87</f>
         <v>1.8659722222222221</v>
       </c>
-      <c r="J4" s="25">
-        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56</f>
+      <c r="J4" s="21">
+        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87</f>
         <v>2.7201388888888896</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -1026,16 +1070,16 @@
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="26">
-        <f>D5+D7+D10+D11+D14+D17++D29+D35+D38+D40+D41+D42+D49+D52+D53+D57</f>
+      <c r="I5" s="22">
+        <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88</f>
         <v>1.9513888888888886</v>
       </c>
-      <c r="J5" s="26">
-        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57</f>
+      <c r="J5" s="22">
+        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88</f>
         <v>2.5069444444444442</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1096,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1068,16 +1112,16 @@
       <c r="F7" s="13">
         <v>43203</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>5.2131944444444436</v>
-      </c>
-      <c r="J7" s="29">
+        <v>6.0465277777777775</v>
+      </c>
+      <c r="J7" s="23">
         <f>J3+J4+J5</f>
-        <v>7.5604166666666668</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <v>9.6229166666666686</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1093,13 +1137,13 @@
       <c r="F8" s="13">
         <v>43199</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="24">
         <f>J7/I7</f>
-        <v>1.4502464366591183</v>
-      </c>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1.5914781210520275</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1160,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
@@ -1133,7 +1177,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1194,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1211,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1228,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1245,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1262,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1279,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1296,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1313,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1286,7 +1330,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1303,7 +1347,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1364,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1381,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1398,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1371,7 +1415,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1432,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1405,7 +1449,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1466,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1484,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +1501,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
@@ -1475,7 +1519,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1536,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1553,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1526,7 +1570,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
@@ -1543,7 +1587,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
@@ -1560,7 +1604,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1621,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1638,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
@@ -1611,7 +1655,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
@@ -1628,7 +1672,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1689,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
@@ -1662,7 +1706,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1679,7 +1723,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
@@ -1696,7 +1740,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1713,7 +1757,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1774,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1791,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
@@ -1764,7 +1808,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1781,7 +1825,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -1798,7 +1842,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1815,7 +1859,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -1832,7 +1876,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1849,7 +1893,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -1866,7 +1910,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1883,7 +1927,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -1900,7 +1944,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1917,29 +1961,457 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="21" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="23">
+      <c r="C57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="17">
         <v>0.125</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="17">
         <v>0.25</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="13">
         <v>43212</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D61" s="27"/>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="13">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F59" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="13">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="13">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="13">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="13">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="13">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E71" s="17">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F71" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="F72" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="13">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="13">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E76" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F76" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E78" s="17">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F78" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E82" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F82" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E84" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="F84" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E86" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F86" s="13">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="13">
+        <v>43170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="13">
+        <v>43170</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F40"/>

--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNI\Proyecto 1\Github\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3C762F9-2EED-45D4-B054-F91F522272A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -315,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -646,7 +652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -936,21 +948,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,11 +1084,11 @@
       </c>
       <c r="I5" s="22">
         <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88</f>
-        <v>1.9513888888888886</v>
+        <v>3.2638888888888888</v>
       </c>
       <c r="J5" s="22">
         <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88</f>
-        <v>2.5069444444444442</v>
+        <v>4.1009606481481482</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1114,11 +1126,11 @@
       </c>
       <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>6.0465277777777775</v>
+        <v>7.3590277777777775</v>
       </c>
       <c r="J7" s="23">
         <f>J3+J4+J5</f>
-        <v>9.6229166666666686</v>
+        <v>11.216932870370371</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1139,7 +1151,7 @@
       </c>
       <c r="I8" s="24">
         <f>J7/I7</f>
-        <v>1.5914781210520275</v>
+        <v>1.5242411374288323</v>
       </c>
       <c r="J8" s="24"/>
     </row>
@@ -2028,8 +2040,12 @@
       <c r="C61" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E61" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F61" s="13">
         <v>43227</v>
       </c>
@@ -2041,8 +2057,12 @@
       <c r="C62" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="D62" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E62" s="17">
+        <v>6.25E-2</v>
+      </c>
       <c r="F62" s="13">
         <v>43227</v>
       </c>
@@ -2067,8 +2087,12 @@
       <c r="C64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="D64" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="F64" s="13">
         <v>43231</v>
       </c>
@@ -2080,8 +2104,12 @@
       <c r="C65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="D65" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E65" s="17">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="F65" s="13">
         <v>43231</v>
       </c>
@@ -2119,8 +2147,12 @@
       <c r="C68" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E68" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F68" s="13">
         <v>43237</v>
       </c>
@@ -2132,8 +2164,12 @@
       <c r="C69" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E69" s="17">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="F69" s="13">
         <v>43237</v>
       </c>
@@ -2192,8 +2228,12 @@
       <c r="C73" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="17">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E73" s="17">
+        <v>3.7384259259259263E-3</v>
+      </c>
       <c r="F73" s="13">
         <v>43237</v>
       </c>
@@ -2218,8 +2258,12 @@
       <c r="C75" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="F75" s="13">
         <v>43252</v>
       </c>
@@ -2278,8 +2322,12 @@
       <c r="C79" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="F79" s="13">
         <v>43252</v>
       </c>
@@ -2334,8 +2382,12 @@
       <c r="C83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="D83" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F83" s="13">
         <v>43252</v>
       </c>
@@ -2407,14 +2459,18 @@
       <c r="C88" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="E88" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F88" s="13">
         <v>43170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F40"/>
+  <autoFilter ref="B2:F40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="I8:J8"/>
   </mergeCells>

--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNI\Proyecto 1\Github\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian\proyectosVisual\MyAwesomeGame2\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3C762F9-2EED-45D4-B054-F91F522272A4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DBD41-746E-47D6-A22E-CF3C30B66633}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -959,10 +959,10 @@
   <dimension ref="B1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,11 +1056,11 @@
       </c>
       <c r="I4" s="21">
         <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87</f>
-        <v>1.8659722222222221</v>
+        <v>2.5638888888888887</v>
       </c>
       <c r="J4" s="21">
         <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87</f>
-        <v>2.7201388888888896</v>
+        <v>3.9250000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1126,11 +1126,11 @@
       </c>
       <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>7.3590277777777775</v>
+        <v>8.0569444444444454</v>
       </c>
       <c r="J7" s="23">
         <f>J3+J4+J5</f>
-        <v>11.216932870370371</v>
+        <v>12.421793981481482</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="I8" s="24">
         <f>J7/I7</f>
-        <v>1.5242411374288323</v>
+        <v>1.5417499856346606</v>
       </c>
       <c r="J8" s="24"/>
     </row>
@@ -1997,8 +1997,12 @@
       <c r="C58" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="D58" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="F58" s="13">
         <v>43231</v>
       </c>
@@ -2027,8 +2031,12 @@
       <c r="C60" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="D60" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="E60" s="17">
+        <v>0.1875</v>
+      </c>
       <c r="F60" s="13">
         <v>43231</v>
       </c>
@@ -2074,8 +2082,12 @@
       <c r="C63" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="D63" s="17">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E63" s="17">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="F63" s="13">
         <v>43237</v>
       </c>
@@ -2121,8 +2133,12 @@
       <c r="C66" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="D66" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E66" s="17">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="F66" s="13">
         <v>43237</v>
       </c>
@@ -2134,8 +2150,12 @@
       <c r="C67" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="D67" s="17">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E67" s="17">
+        <v>3.125E-2</v>
+      </c>
       <c r="F67" s="13">
         <v>43237</v>
       </c>
@@ -2181,8 +2201,12 @@
       <c r="C70" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="17">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E70" s="17">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="F70" s="13">
         <v>43237</v>
       </c>
@@ -2245,8 +2269,12 @@
       <c r="C74" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="D74" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E74" s="17">
+        <v>3.125E-2</v>
+      </c>
       <c r="F74" s="13">
         <v>43242</v>
       </c>
@@ -2292,8 +2320,12 @@
       <c r="C77" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="F77" s="13">
         <v>43252</v>
       </c>
@@ -2339,8 +2371,12 @@
       <c r="C80" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E80" s="17">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F80" s="13">
         <v>43252</v>
       </c>
@@ -2352,8 +2388,12 @@
       <c r="C81" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="D81" s="17">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E81" s="17">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="F81" s="13">
         <v>43252</v>
       </c>
@@ -2416,8 +2456,12 @@
       <c r="C85" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E85" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F85" s="13">
         <v>43252</v>
       </c>
@@ -2446,8 +2490,12 @@
       <c r="C87" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="D87" s="17">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E87" s="17">
+        <v>0.27083333333333331</v>
+      </c>
       <c r="F87" s="13">
         <v>43170</v>
       </c>

--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian\proyectosVisual\MyAwesomeGame2\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLUIS\Documents\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038DBD41-746E-47D6-A22E-CF3C30B66633}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14136"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>TASKS</t>
   </si>
@@ -316,12 +315,39 @@
   </si>
   <si>
     <t>Wiki home/ art / design(no sprites)</t>
+  </si>
+  <si>
+    <t>Ultimates</t>
+  </si>
+  <si>
+    <t>Enemy Fish Ship</t>
+  </si>
+  <si>
+    <t>Put enemies in stage 1</t>
+  </si>
+  <si>
+    <t>Put enemies in stage 4</t>
+  </si>
+  <si>
+    <t>PowerUp M</t>
+  </si>
+  <si>
+    <t>PowerUp U</t>
+  </si>
+  <si>
+    <t>Enemy CoolGreenShip</t>
+  </si>
+  <si>
+    <t>Enemy LongShip</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -955,32 +981,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1026,16 +1052,16 @@
         <v>8</v>
       </c>
       <c r="I3" s="21">
-        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6+D59+D71+D72+D76+D78+D82+D84+D86</f>
-        <v>2.229166666666667</v>
+        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6+D59+D71+D72+D76+D78+D82+D84+D86+D91+D92+D97</f>
+        <v>2.5625000000000004</v>
       </c>
       <c r="J3" s="21">
-        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6+E59+E71+E72+E76+E78+E82+E84+E86</f>
-        <v>4.3958333333333339</v>
+        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6+E59+E71+E72+E76+E78+E82+E84+E86+E91+E92+E97</f>
+        <v>4.729166666666667</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1055,15 +1081,15 @@
         <v>7</v>
       </c>
       <c r="I4" s="21">
-        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87</f>
+        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87+D89+D93+D94</f>
         <v>2.5638888888888887</v>
       </c>
       <c r="J4" s="21">
-        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87</f>
+        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87+E93+E94+E89</f>
         <v>3.9250000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -1083,15 +1109,15 @@
         <v>6</v>
       </c>
       <c r="I5" s="22">
-        <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88</f>
-        <v>3.2638888888888888</v>
+        <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88+D90+D95+D96+D98</f>
+        <v>3.5972222222222219</v>
       </c>
       <c r="J5" s="22">
-        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88</f>
-        <v>4.1009606481481482</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88+E90+E95+E96+E98</f>
+        <v>4.6009606481481491</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1126,14 +1152,14 @@
       </c>
       <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>8.0569444444444454</v>
+        <v>8.7236111111111114</v>
       </c>
       <c r="J7" s="23">
         <f>J3+J4+J5</f>
-        <v>12.421793981481482</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>13.255127314814816</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1151,11 +1177,11 @@
       </c>
       <c r="I8" s="24">
         <f>J7/I7</f>
-        <v>1.5417499856346606</v>
+        <v>1.5194541739638063</v>
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1172,7 +1198,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
@@ -1189,7 +1215,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1232,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1249,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1240,7 +1266,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1283,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1300,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1334,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1351,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1368,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1359,7 +1385,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1419,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1436,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1444,7 +1470,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1487,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
@@ -1478,7 +1504,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1496,7 +1522,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1513,7 +1539,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
@@ -1531,7 +1557,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
@@ -1548,7 +1574,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1565,7 +1591,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1582,7 +1608,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
@@ -1599,7 +1625,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
@@ -1616,7 +1642,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
@@ -1633,7 +1659,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>30</v>
       </c>
@@ -1650,7 +1676,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1693,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1710,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1727,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
@@ -1718,7 +1744,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1735,7 +1761,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
@@ -1752,7 +1778,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1769,7 +1795,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
@@ -1786,7 +1812,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1803,7 +1829,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
@@ -1820,7 +1846,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1837,7 +1863,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -1854,7 +1880,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1871,7 +1897,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -1888,7 +1914,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -1922,7 +1948,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1939,7 +1965,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -1956,7 +1982,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1973,7 +1999,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
@@ -1990,7 +2016,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
@@ -2007,7 +2033,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>66</v>
       </c>
@@ -2024,7 +2050,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2067,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
@@ -2058,7 +2084,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>69</v>
       </c>
@@ -2075,7 +2101,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>83</v>
       </c>
@@ -2092,7 +2118,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2135,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>71</v>
       </c>
@@ -2126,7 +2152,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>72</v>
       </c>
@@ -2143,7 +2169,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>73</v>
       </c>
@@ -2160,7 +2186,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
@@ -2177,7 +2203,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>75</v>
       </c>
@@ -2194,7 +2220,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
@@ -2211,7 +2237,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>77</v>
       </c>
@@ -2228,7 +2254,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>78</v>
       </c>
@@ -2245,7 +2271,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>79</v>
       </c>
@@ -2262,7 +2288,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>80</v>
       </c>
@@ -2279,7 +2305,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
@@ -2296,7 +2322,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>82</v>
       </c>
@@ -2313,7 +2339,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>84</v>
       </c>
@@ -2330,7 +2356,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>88</v>
       </c>
@@ -2347,7 +2373,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2390,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>86</v>
       </c>
@@ -2381,7 +2407,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>87</v>
       </c>
@@ -2398,7 +2424,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>92</v>
       </c>
@@ -2415,7 +2441,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>89</v>
       </c>
@@ -2432,7 +2458,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>90</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>91</v>
       </c>
@@ -2466,7 +2492,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>95</v>
       </c>
@@ -2483,7 +2509,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>93</v>
       </c>
@@ -2500,7 +2526,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>94</v>
       </c>
@@ -2517,8 +2543,166 @@
         <v>43170</v>
       </c>
     </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E90" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F90" s="13">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E91" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F91" s="13">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E92" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F92" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="13">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E95" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F95" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E96" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F96" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E97" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F97" s="13">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E98" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="F98" s="13">
+        <v>43254</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:F40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:F40"/>
   <mergeCells count="1">
     <mergeCell ref="I8:J8"/>
   </mergeCells>

--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLUIS\Documents\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian\proyectosVisual\MyAwesomeGame2\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02659C-D33F-4C46-BEBB-7CA676D1DFCF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14136"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
   <si>
     <t>TASKS</t>
   </si>
@@ -342,12 +343,15 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -981,32 +985,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1065,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1082,14 +1086,14 @@
       </c>
       <c r="I4" s="21">
         <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87+D89+D93+D94</f>
-        <v>2.5638888888888887</v>
-      </c>
-      <c r="J4" s="21">
+        <v>2.9597222222222217</v>
+      </c>
+      <c r="J4" s="21" t="e">
         <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87+E93+E94+E89</f>
-        <v>3.9250000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>4.6009606481481491</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1152,14 +1156,14 @@
       </c>
       <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>8.7236111111111114</v>
-      </c>
-      <c r="J7" s="23">
+        <v>9.1194444444444436</v>
+      </c>
+      <c r="J7" s="23" t="e">
         <f>J3+J4+J5</f>
-        <v>13.255127314814816</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1175,13 +1179,13 @@
       <c r="F8" s="13">
         <v>43199</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="24" t="e">
         <f>J7/I7</f>
-        <v>1.5194541739638063</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1522,7 +1526,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
@@ -1557,7 +1561,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
@@ -1812,7 +1816,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +1918,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1965,7 +1969,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2054,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>69</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>83</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>71</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>72</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>73</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>75</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
@@ -2237,7 +2241,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>77</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>78</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>79</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>80</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>84</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>88</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>85</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>86</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>87</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>92</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>89</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>90</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>91</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>93</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>94</v>
       </c>
@@ -2543,20 +2547,24 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="17">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="F89" s="13">
         <v>43254</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>97</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>98</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>99</v>
       </c>
@@ -2607,20 +2615,24 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="D93" s="17">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E93" s="17">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="F93" s="13">
         <v>43253</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>102</v>
       </c>
@@ -2650,7 +2662,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>103</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>104</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>104</v>
       </c>
@@ -2702,7 +2714,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F40"/>
+  <autoFilter ref="B2:F40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="I8:J8"/>
   </mergeCells>

--- a/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
+++ b/SDL_AndroDunos/Game/AndroDunos_TimeTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christian\proyectosVisual\MyAwesomeGame2\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLUIS\Documents\Andro-Dunos-main\SDL_AndroDunos\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02659C-D33F-4C46-BEBB-7CA676D1DFCF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14136"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$40</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>TASKS</t>
   </si>
@@ -333,9 +332,6 @@
     <t>PowerUp M</t>
   </si>
   <si>
-    <t>PowerUp U</t>
-  </si>
-  <si>
     <t>Enemy CoolGreenShip</t>
   </si>
   <si>
@@ -345,13 +341,13 @@
     <t>Video</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Boss 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -421,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -550,6 +546,37 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -569,7 +596,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,6 +664,18 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -801,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -985,32 +1024,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="41.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1056,16 +1095,16 @@
         <v>8</v>
       </c>
       <c r="I3" s="21">
-        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6+D59+D71+D72+D76+D78+D82+D84+D86+D91+D92+D97</f>
+        <f>D3+D4+D8+D9+D12+D16+D19+D20+D23+D24+D25+D26+D30+D31+D43+D44+D45+D46+D47+D48+D6+D59+D71+D72+D76+D78+D82+D84+D86+D91+D92+D96</f>
         <v>2.5625000000000004</v>
       </c>
       <c r="J3" s="21">
-        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6+E59+E71+E72+E76+E78+E82+E84+E86+E91+E92+E97</f>
-        <v>4.729166666666667</v>
+        <f>E3+E4+E8+E9+E12+E16+E19+E20+E23+E24+E25+E26+E30+E31+E43+E44+E45+E46+E47+E48+E6+E59+E71+E72+E76+E78+E82+E84+E86+E91+E92+E96</f>
+        <v>4.7708333333333339</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1085,15 +1124,15 @@
         <v>7</v>
       </c>
       <c r="I4" s="21">
-        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87+D89+D93+D94</f>
-        <v>2.9597222222222217</v>
-      </c>
-      <c r="J4" s="21" t="e">
-        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87+E93+E94+E89</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>D13+D15+D18+D21+D22+D27+D28+D32+D33+D34+D36+D37+D39++D50+D51+D54+D55+D56+D58+D60+D63+D66+D67+D70+D74+D77+D80+D81+D85+D87+D89+D93++D98</f>
+        <v>3.1680555555555552</v>
+      </c>
+      <c r="J4" s="21">
+        <f>E13+E15+E18+E21+E22+E27+E28+E32+E33+E34+E36+E37+E39++E50+E51+E54+E55+E56+E58+E60+E63+E66+E67+E70+E74+E77+E80+E81+E85+E87+E93++E89</f>
+        <v>4.4250000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
@@ -1113,15 +1152,15 @@
         <v>6</v>
       </c>
       <c r="I5" s="22">
-        <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88+D90+D95+D96+D98</f>
+        <f>D5+D7+D10+D11+D14+D17+D29+D35+D38+D40+D41+D42+D49+D52+D53+D57+D61+D62+D64+D65+D68+D69+D73+D75+D79+D83+D88+D90+D94+D95+D97</f>
         <v>3.5972222222222219</v>
       </c>
       <c r="J5" s="22">
-        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88+E90+E95+E96+E98</f>
-        <v>4.6009606481481491</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f>E5+E7+E10+E11+E14+E17++E29+E35+E38+E40+E41+E42+E49+E52+E53+E57+E61+E62+E64+E65+E68+E69+E73+E75+E79+E83+E88+E90+E94+E95+E97+E98</f>
+        <v>4.8509606481481491</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1177,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1156,14 +1195,14 @@
       </c>
       <c r="I7" s="23">
         <f>I3+I4+I5</f>
-        <v>9.1194444444444436</v>
-      </c>
-      <c r="J7" s="23" t="e">
+        <v>9.3277777777777775</v>
+      </c>
+      <c r="J7" s="23">
         <f>J3+J4+J5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>14.046793981481484</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -1179,13 +1218,13 @@
       <c r="F8" s="13">
         <v>43199</v>
       </c>
-      <c r="I8" s="24" t="e">
+      <c r="I8" s="28">
         <f>J7/I7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1.5059100158824701</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1241,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
@@ -1219,7 +1258,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1236,7 +1275,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1292,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1309,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1326,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1343,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1360,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1377,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1394,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1428,7 @@
         <v>43199</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1445,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1479,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>40</v>
       </c>
@@ -1457,7 +1496,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1513,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1491,7 +1530,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1547,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1526,7 +1565,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1543,7 +1582,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +1600,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
@@ -1578,7 +1617,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1634,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1651,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1668,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1685,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
@@ -1663,7 +1702,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1719,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
@@ -1697,7 +1736,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1753,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1731,7 +1770,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>47</v>
       </c>
@@ -1748,7 +1787,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1765,7 +1804,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
@@ -1782,7 +1821,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1838,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
@@ -1816,7 +1855,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1833,7 +1872,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1889,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1867,7 +1906,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -1884,7 +1923,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1901,7 +1940,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>57</v>
       </c>
@@ -1918,7 +1957,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1974,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -1952,7 +1991,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +2008,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>61</v>
       </c>
@@ -1986,7 +2025,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -2003,7 +2042,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2059,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>65</v>
       </c>
@@ -2037,7 +2076,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2093,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2071,7 +2110,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>68</v>
       </c>
@@ -2088,7 +2127,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>69</v>
       </c>
@@ -2105,7 +2144,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>83</v>
       </c>
@@ -2122,7 +2161,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
@@ -2139,7 +2178,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>71</v>
       </c>
@@ -2156,7 +2195,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>72</v>
       </c>
@@ -2173,7 +2212,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>73</v>
       </c>
@@ -2190,7 +2229,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>74</v>
       </c>
@@ -2207,7 +2246,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>75</v>
       </c>
@@ -2224,7 +2263,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
@@ -2241,7 +2280,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>77</v>
       </c>
@@ -2258,7 +2297,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>78</v>
       </c>
@@ -2275,7 +2314,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>79</v>
       </c>
@@ -2292,7 +2331,7 @@
         <v>43237</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>80</v>
       </c>
@@ -2309,7 +2348,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>81</v>
       </c>
@@ -2326,7 +2365,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>82</v>
       </c>
@@ -2343,7 +2382,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>84</v>
       </c>
@@ -2360,7 +2399,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>88</v>
       </c>
@@ -2377,7 +2416,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>85</v>
       </c>
@@ -2394,7 +2433,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>86</v>
       </c>
@@ -2411,7 +2450,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>87</v>
       </c>
@@ -2428,7 +2467,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>92</v>
       </c>
@@ -2445,7 +2484,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>89</v>
       </c>
@@ -2462,7 +2501,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>90</v>
       </c>
@@ -2479,7 +2518,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>91</v>
       </c>
@@ -2496,7 +2535,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>95</v>
       </c>
@@ -2513,7 +2552,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>93</v>
       </c>
@@ -2530,7 +2569,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>94</v>
       </c>
@@ -2547,7 +2586,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>96</v>
       </c>
@@ -2557,14 +2596,14 @@
       <c r="D89" s="17">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>105</v>
+      <c r="E89" s="14">
+        <v>0.29166666666666669</v>
       </c>
       <c r="F89" s="13">
         <v>43254</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>97</v>
       </c>
@@ -2581,7 +2620,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>98</v>
       </c>
@@ -2598,7 +2637,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>99</v>
       </c>
@@ -2615,7 +2654,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>100</v>
       </c>
@@ -2632,20 +2671,24 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="D94" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E94" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F94" s="13">
         <v>43254</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>102</v>
       </c>
@@ -2662,59 +2705,59 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D96" s="17">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E96" s="17">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F96" s="13">
         <v>43254</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E97" s="17">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F97" s="13">
         <v>43254</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
+    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="17">
+      <c r="C98" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="27">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E98" s="27">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E98" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="F98" s="13">
+      <c r="F98" s="26">
         <v>43254</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:F40"/>
   <mergeCells count="1">
     <mergeCell ref="I8:J8"/>
   </mergeCells>
